--- a/Table/Table/StringTable.xlsx
+++ b/Table/Table/StringTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Table\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Unity-Table\Table\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B932B7-3F5C-4B7D-85D9-6A18D0A4FEC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF6792F-C989-422F-8CB4-E4291A2CD082}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="1290" windowWidth="12315" windowHeight="6510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StringTable" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>normal_sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -398,6 +402,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -410,7 +428,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
